--- a/03スプリントバックログ/完成版Scrum2_スプリントバックログ2回目.xlsx
+++ b/03スプリントバックログ/完成版Scrum2_スプリントバックログ2回目.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A46FBF2-3ED7-4FFB-831D-94B711722553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E4B5EE-12DD-4113-86C1-2C67510CD031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -382,22 +382,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力された情報を保存や呼出しなど</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨビダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -977,7 +961,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -994,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -1011,7 +995,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -1059,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1135,7 +1119,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
@@ -1146,24 +1130,22 @@
         <v>30</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -1202,7 +1184,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -1213,24 +1195,22 @@
         <v>30</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -1243,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1296,19 +1276,19 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -1319,7 +1299,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1330,11 +1310,11 @@
         <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>27</v>
@@ -1349,7 +1329,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>27</v>
@@ -1360,11 +1340,11 @@
         <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>43</v>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>27</v>
@@ -1393,7 +1373,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40" customHeight="1">
@@ -1405,7 +1385,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
@@ -1413,16 +1393,31 @@
     </row>
     <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="40" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
     </row>

--- a/03スプリントバックログ/完成版Scrum2_スプリントバックログ2回目.xlsx
+++ b/03スプリントバックログ/完成版Scrum2_スプリントバックログ2回目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E4B5EE-12DD-4113-86C1-2C67510CD031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A48F3C-884D-4EDD-A470-A3455AE4CA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2520" windowWidth="15170" windowHeight="9480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -403,13 +403,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鍋田</t>
-    <rPh sb="0" eb="2">
-      <t>ナベタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>藤﨑
 福山</t>
     <rPh sb="0" eb="2">
@@ -447,13 +440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>藤﨑</t>
-    <rPh sb="0" eb="2">
-      <t>フジサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面の見た目と表示の仕方</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -468,6 +454,28 @@
     <t>ほぼ完了</t>
     <rPh sb="2" eb="4">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池田
+王</t>
+    <rPh sb="0" eb="2">
+      <t>イケダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍋田
+米田</t>
+    <rPh sb="0" eb="2">
+      <t>ナベタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨネダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -961,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -978,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -995,7 +1003,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -1043,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1119,7 +1127,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
@@ -1130,10 +1138,12 @@
         <v>30</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -1144,8 +1154,8 @@
         <v>35</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>36</v>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -1184,7 +1194,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -1195,10 +1205,12 @@
         <v>30</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="40" customHeight="1">
@@ -1209,8 +1221,8 @@
         <v>35</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>36</v>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -1223,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1276,7 +1288,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -1287,8 +1299,8 @@
         <v>35</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>36</v>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -1299,10 +1311,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -1310,14 +1322,14 @@
         <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>42</v>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -1328,8 +1340,8 @@
         <v>32</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>42</v>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>27</v>
@@ -1340,11 +1352,11 @@
         <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>27</v>
@@ -1373,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40" customHeight="1">
@@ -1385,7 +1397,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
@@ -1399,8 +1411,8 @@
         <v>35</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>36</v>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>27</v>
@@ -1411,15 +1423,50 @@
         <v>30</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="14" spans="1:5" ht="40" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="40" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="40" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="40.5" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="39.5" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/03スプリントバックログ/完成版Scrum2_スプリントバックログ2回目.xlsx
+++ b/03スプリントバックログ/完成版Scrum2_スプリントバックログ2回目.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A48F3C-884D-4EDD-A470-A3455AE4CA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EF4711-FFE2-4DB2-A774-31088E245EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2520" windowWidth="15170" windowHeight="9480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="860" windowWidth="18200" windowHeight="10370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -447,13 +447,6 @@
     <t>データベースとの紐づけ</t>
     <rPh sb="8" eb="9">
       <t>ヒモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ほぼ完了</t>
-    <rPh sb="2" eb="4">
-      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1051,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1155,7 +1148,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -1222,7 +1215,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -1237,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1288,7 +1281,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -1300,10 +1293,10 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -1326,7 +1319,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>38</v>
@@ -1341,7 +1334,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>27</v>
@@ -1412,7 +1405,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>27</v>

--- a/03スプリントバックログ/完成版Scrum2_スプリントバックログ2回目.xlsx
+++ b/03スプリントバックログ/完成版Scrum2_スプリントバックログ2回目.xlsx
@@ -3,14 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EF4711-FFE2-4DB2-A774-31088E245EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EFF326-8180-4267-BD5F-5B1F26C8E66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="860" windowWidth="18200" windowHeight="10370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第2スプリント)" sheetId="3" r:id="rId1"/>
-    <sheet name="スプリント計画（機能１）" sheetId="4" r:id="rId2"/>
-    <sheet name="スプリント計画（機能２）" sheetId="7" r:id="rId3"/>
+    <sheet name="スプリント計画（グループ一覧追加）" sheetId="4" r:id="rId2"/>
+    <sheet name="スプリント計画（グループ一覧表示）" sheetId="8" r:id="rId3"/>
+    <sheet name="スプリント計画（カレンダー）" sheetId="7" r:id="rId4"/>
+    <sheet name="スプリント計画（予定追加）" sheetId="10" r:id="rId5"/>
+    <sheet name="スプリント計画（予定表示）" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第2スプリント)'!$2:$2</definedName>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -237,13 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>グループ一覧</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>共有のためのグループの作成</t>
     <rPh sb="0" eb="2">
       <t>キョウユウ</t>
@@ -470,6 +466,35 @@
     <rPh sb="3" eb="5">
       <t>ヨネダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ一覧表示</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ一覧表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースと接続がうまくいかないため後回し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほぼ完成</t>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formactionがうまくいっていない</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -878,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -926,10 +951,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -941,10 +966,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -962,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -979,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -990,13 +1015,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -1044,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1062,9 +1087,9 @@
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="e">
-        <f>'スプリントバックログ (第2スプリント)'!#REF!</f>
-        <v>#REF!</v>
+      <c r="B1" s="6" t="str">
+        <f>'スプリントバックログ (第2スプリント)'!C3</f>
+        <v>グループ一覧追加</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -1082,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
@@ -1090,7 +1115,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="1"/>
@@ -1098,125 +1123,92 @@
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="40" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="40" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="40" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="8"/>
     </row>
   </sheetData>
@@ -1227,11 +1219,135 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB17E85B-A270-4E16-8B9A-DFB40E37F633}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="str">
+        <f>'スプリントバックログ (第2スプリント)'!C4</f>
+        <v>グループ一覧表示</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="40" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1"/>
+    <row r="9" spans="1:5" ht="40" customHeight="1"/>
+    <row r="10" spans="1:5" ht="40" customHeight="1"/>
+    <row r="11" spans="1:5" ht="40" customHeight="1"/>
+    <row r="12" spans="1:5" ht="40" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -1248,9 +1364,9 @@
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="e">
-        <f>'スプリントバックログ (第2スプリント)'!#REF!</f>
-        <v>#REF!</v>
+      <c r="B1" s="6" t="str">
+        <f>'スプリントバックログ (第2スプリント)'!C5</f>
+        <v>カレンダー</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -1268,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
@@ -1281,186 +1397,352 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="40" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="40" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="40" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="40" customHeight="1"/>
+    <row r="11" spans="1:5" ht="40" customHeight="1"/>
+    <row r="12" spans="1:5" ht="40" customHeight="1"/>
+    <row r="13" spans="1:5" ht="40" customHeight="1"/>
+    <row r="14" spans="1:5" ht="40" customHeight="1"/>
+    <row r="15" spans="1:5" ht="40" customHeight="1"/>
+    <row r="16" spans="1:5" ht="40" customHeight="1"/>
+    <row r="17" ht="40.5" customHeight="1"/>
+    <row r="18" ht="39.5" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C309FA02-DEA4-414D-8846-8D0EA488889D}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="15" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="40" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="str">
+        <f>'スプリントバックログ (第2スプリント)'!C6</f>
+        <v>予定追加</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="40" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="40" customHeight="1"/>
+    <row r="9" spans="1:6" ht="40" customHeight="1"/>
+    <row r="10" spans="1:6" ht="40" customHeight="1"/>
+    <row r="11" spans="1:6" ht="40" customHeight="1"/>
+    <row r="12" spans="1:6" ht="40" customHeight="1"/>
+    <row r="13" spans="1:6" ht="40" customHeight="1"/>
+    <row r="14" spans="1:6" ht="40" customHeight="1"/>
+    <row r="15" spans="1:6" ht="40" customHeight="1"/>
+    <row r="16" spans="1:6" ht="40" customHeight="1"/>
+    <row r="17" ht="40.5" customHeight="1"/>
+    <row r="18" ht="39.5" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF41FD97-F723-4964-B85A-5B143E0EC58A}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="18.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="15" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="40" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="str">
+        <f>'スプリントバックログ (第2スプリント)'!C7</f>
+        <v>予定表示</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="40" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="40" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="40" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="40" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="40" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="40" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="40" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="40" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="40" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="39.5" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="8"/>
-    </row>
+      <c r="D10" s="1"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="40" customHeight="1"/>
+    <row r="12" spans="1:6" ht="40" customHeight="1"/>
+    <row r="13" spans="1:6" ht="40" customHeight="1"/>
+    <row r="14" spans="1:6" ht="40" customHeight="1"/>
+    <row r="15" spans="1:6" ht="40" customHeight="1"/>
+    <row r="16" spans="1:6" ht="40" customHeight="1"/>
+    <row r="17" ht="40.5" customHeight="1"/>
+    <row r="18" ht="39.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
